--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zofia arrives at the bar after a while and is surprised to learn Maria’s next opponent. At the same time, the incredible strength of the Left-hand Knight leaves Maria in a desperate situation.
+    <t xml:space="preserve">Zofia arrives at the bar after a while and is surprised to learn Maria's next opponent. At the same time, the incredible strength of the Left-hand Knight leaves Maria in a desperate situation.
 </t>
   </si>
   <si>
